--- a/public/documents/data_import_format.xlsx
+++ b/public/documents/data_import_format.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="10515" windowHeight="4695"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>client_contact</t>
+    <t>name</t>
   </si>
   <si>
-    <t>client_email</t>
+    <t>contact</t>
   </si>
   <si>
-    <t>client_address</t>
+    <t>email</t>
   </si>
   <si>
-    <t>client_name</t>
+    <t>address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -158,6 +166,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -192,6 +201,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,33 +377,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="8" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -403,24 +415,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/documents/data_import_format.xlsx
+++ b/public/documents/data_import_format.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -28,13 +28,55 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>City Not Available</t>
+  </si>
+  <si>
+    <t>ba_/_b.com_/_bba_/_b.ed_</t>
+  </si>
+  <si>
+    <t>ayush kulkarni</t>
+  </si>
+  <si>
+    <t>`+91-7441146689</t>
+  </si>
+  <si>
+    <t>aayushkulkarni567@gmail.com</t>
+  </si>
+  <si>
+    <t>24/07/2025, 04:11:19 PM</t>
+  </si>
+  <si>
+    <t>SHUBHAM RAVINDRA BADGUJAR</t>
+  </si>
+  <si>
+    <t>`+91-8484880889</t>
+  </si>
+  <si>
+    <t>shubz8484@gmail.com</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>16/06/2025, 04:01:33 PM</t>
+  </si>
+  <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t>passout_year</t>
+  </si>
+  <si>
+    <t>created_at</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +208,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,7 +242,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,24 +417,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
     <col min="8" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,6 +446,61 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>2024</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2024</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -415,24 +510,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
